--- a/projetCDA/Base de donnée/MLD_MCD_SCRIPT/9. Bibliotheque.xlsx
+++ b/projetCDA/Base de donnée/MLD_MCD_SCRIPT/9. Bibliotheque.xlsx
@@ -183,12 +183,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -203,14 +209,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -488,7 +500,7 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="34.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,58 +514,58 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E9" t="s">
@@ -561,10 +573,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E10" t="s">
@@ -572,10 +584,10 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E11" t="s">
@@ -583,216 +595,216 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>45</v>
       </c>
     </row>
